--- a/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2005-12-31 to 2008-09-30.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2005-12-31 to 2008-09-30.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>C/A Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
   </si>
   <si>
     <t>Constant</t>
@@ -34,52 +34,52 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>-0.087</t>
-  </si>
-  <si>
-    <t>-1.678***</t>
-  </si>
-  <si>
-    <t>0.178</t>
-  </si>
-  <si>
-    <t>-1.198***</t>
-  </si>
-  <si>
-    <t>-0.839</t>
-  </si>
-  <si>
-    <t>-1.786</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>-2.01</t>
-  </si>
-  <si>
-    <t>-0.322***</t>
-  </si>
-  <si>
-    <t>-0.036</t>
-  </si>
-  <si>
-    <t>0.213*</t>
-  </si>
-  <si>
-    <t>-0.064</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>-0.028</t>
-  </si>
-  <si>
-    <t>1.068*</t>
-  </si>
-  <si>
-    <t>-0.518</t>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>-2.343***</t>
+  </si>
+  <si>
+    <t>0.519*</t>
+  </si>
+  <si>
+    <t>-0.363*</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>-0.989</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>-0.296***</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>0.23**</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.301*</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>1.055**</t>
+  </si>
+  <si>
+    <t>-0.115</t>
   </si>
 </sst>
 </file>
@@ -535,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>-0.02</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="E7">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
